--- a/cs2420/efficiency/mostly_sorted_data_comparisons.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
         <v>21</v>
@@ -482,7 +482,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>14</v>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C3" t="n">
         <v>45</v>
@@ -505,10 +505,10 @@
         <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G3" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -528,10 +528,10 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>4032</v>
+        <v>3843</v>
       </c>
       <c r="C5" t="n">
         <v>189</v>
@@ -551,7 +551,7 @@
         <v>253</v>
       </c>
       <c r="F5" t="n">
-        <v>1357</v>
+        <v>1211</v>
       </c>
       <c r="G5" t="n">
         <v>279</v>
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>16129</v>
+        <v>16002</v>
       </c>
       <c r="C6" t="n">
         <v>381</v>
@@ -574,10 +574,10 @@
         <v>573</v>
       </c>
       <c r="F6" t="n">
-        <v>5238</v>
+        <v>5060</v>
       </c>
       <c r="G6" t="n">
-        <v>667</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>65025</v>
+        <v>65280</v>
       </c>
       <c r="C7" t="n">
         <v>765</v>
@@ -597,10 +597,10 @@
         <v>1277</v>
       </c>
       <c r="F7" t="n">
-        <v>21300</v>
+        <v>21526</v>
       </c>
       <c r="G7" t="n">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>261121</v>
+        <v>261632</v>
       </c>
       <c r="C8" t="n">
         <v>1533</v>
@@ -617,10 +617,10 @@
         <v>512</v>
       </c>
       <c r="E8" t="n">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="F8" t="n">
-        <v>84774</v>
+        <v>84236</v>
       </c>
       <c r="G8" t="n">
         <v>3689</v>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1046529</v>
+        <v>1047552</v>
       </c>
       <c r="C9" t="n">
         <v>3069</v>
@@ -640,13 +640,13 @@
         <v>1024</v>
       </c>
       <c r="E9" t="n">
-        <v>6141</v>
+        <v>6139</v>
       </c>
       <c r="F9" t="n">
-        <v>328501</v>
+        <v>332230</v>
       </c>
       <c r="G9" t="n">
-        <v>8393</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>4192256</v>
+        <v>4190209</v>
       </c>
       <c r="C10" t="n">
         <v>6141</v>
@@ -666,10 +666,33 @@
         <v>13309</v>
       </c>
       <c r="F10" t="n">
-        <v>1288275</v>
+        <v>1336075</v>
       </c>
       <c r="G10" t="n">
-        <v>18878</v>
+        <v>18845</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16773120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12285</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28669</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5260786</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41833</v>
       </c>
     </row>
   </sheetData>
